--- a/public/Assets and Liabilities.xlsx
+++ b/public/Assets and Liabilities.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nzmia27qNa8oNXHtuc01c0mGrQMvkf4Kxkft09mCaRU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="m6RsQ9PtpLNv7LbMu6toMrNllHs5oXiZvWxYILMKQFs="/>
     </ext>
   </extLst>
 </workbook>
@@ -624,7 +624,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="904875" cy="676275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -848,265 +877,230 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="K10" s="14" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="10"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="10"/>
+      <c r="B16" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="B17" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="10"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="30"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="B18" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="10"/>
@@ -1114,11 +1108,13 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="10"/>
@@ -1126,13 +1122,13 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="30"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="10"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1140,227 +1136,260 @@
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="30"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="23" t="s">
-        <v>26</v>
+      <c r="D21" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="31"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="B23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B27" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="2" t="s">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-    </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B35" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="8"/>
-      <c r="C33" s="23" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="B36" s="8"/>
+      <c r="C36" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="41"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="8"/>
-      <c r="C34" s="23" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="41"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="B37" s="8"/>
+      <c r="C37" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="C35" s="42" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="B38" s="11"/>
+      <c r="C38" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40" ht="14.25" customHeight="1"/>
     <row r="41" ht="14.25" customHeight="1"/>
@@ -2323,24 +2352,27 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
